--- a/For Sell OLD.xlsx
+++ b/For Sell OLD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1. Najeeb Associates\000FFICE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1. Najeeb Associates\000FFICE\Office Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76B8B04-6C91-4FA5-A9EB-FDF170E6B51F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF812E7-D76F-4A49-BC5D-96C0F7926B52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="783" activeTab="7" xr2:uid="{B2A19E3B-6786-4ED5-96A6-D1A6BAD18668}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="783" activeTab="3" xr2:uid="{B2A19E3B-6786-4ED5-96A6-D1A6BAD18668}"/>
   </bookViews>
   <sheets>
     <sheet name="Sell G-15" sheetId="11" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="150">
   <si>
     <t>F-15/1</t>
   </si>
@@ -455,6 +455,33 @@
   </si>
   <si>
     <t>Required Location</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>1800</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>0.333333333</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>25-Sep-20</t>
   </si>
 </sst>
 </file>
@@ -644,7 +671,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -803,11 +830,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -877,12 +913,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1011,156 +1041,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1173,6 +1053,236 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1189,7 +1299,712 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1200,6 +2015,42 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{66F84AE4-710B-4E4A-B98D-96673DF31CE7}" name="Table1" displayName="Table1" ref="A3:S17" totalsRowShown="0" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19">
+  <autoFilter ref="A3:S17" xr:uid="{B729C184-A507-4C92-AC67-D176B13AB697}"/>
+  <tableColumns count="19">
+    <tableColumn id="1" xr3:uid="{40749ECF-8C56-452A-A0C5-7E8E0610EE26}" name="1" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{8A204EB1-720D-42F7-95BD-16959A526C43}" name="Residential" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{62448C32-E56B-4165-AA19-0E7F753C6AB5}" name="A" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{2ECEF137-74E3-4F2A-85DB-C89D25FBA773}" name="Plot" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{DD1B1DC0-6621-4613-9E0E-F45FAE623CD9}" name="190" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{9FCEADAF-89AF-45B1-9B74-93EF398D02C6}" name="30" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{450C7574-F4CA-4360-8EFC-783B007FDFAA}" name="x" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{0209A7D4-74DC-47C1-9AFE-8B17B405431C}" name="60" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{A89E30E2-8A08-4B34-B153-30E6D5426508}" name="1800" dataDxfId="10">
+      <calculatedColumnFormula>F4*H4</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{9F6061E7-3612-4FFF-880B-181EBE9111E7}" name="7.2" dataDxfId="9">
+      <calculatedColumnFormula>I4/250</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{7B11A254-379A-47F1-AF39-F2000EDE0714}" name="0.333333333" dataDxfId="8">
+      <calculatedColumnFormula>I4/5400</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{C86A650A-5149-40F1-9F02-7D8655E1C52D}" name="200" dataDxfId="7">
+      <calculatedColumnFormula>I4/9</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{9580EB43-F1BC-4289-95AF-FA6CCB2783E4}" name="Yes" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{1F080240-0384-4F91-8625-83FE61BB0B24}" name="?" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{FB166FE7-11EC-4D4C-958F-1E3F1C1709C7}" name="60 Lac" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{C81F0A5E-0BA7-4823-AAA3-111F97013A67}" name="Already Offered 57.5 lac  - Urgent Sell" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{429A996A-1460-43C2-BAA8-967E8CE9A80E}" name="Imran HRG" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{E94CDB75-9EA8-4F57-906C-810D15AF7D5A}" name="0337-04444995" dataDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{8B7ED032-1D97-440C-9700-CCB00A15E98D}" name="25-Sep-20" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1502,7 +2353,7 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1537,7 +2388,7 @@
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
       <c r="J1" s="12"/>
-      <c r="K1" s="30"/>
+      <c r="K1" s="28"/>
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
@@ -1552,15 +2403,15 @@
       <c r="B2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="90" t="s">
+      <c r="C2" s="126" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="92"/>
-      <c r="E2" s="90" t="s">
+      <c r="D2" s="128"/>
+      <c r="E2" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="91"/>
-      <c r="G2" s="92"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="128"/>
       <c r="H2" s="11" t="s">
         <v>7</v>
       </c>
@@ -1585,935 +2436,935 @@
       <c r="O2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="90" t="s">
+      <c r="P2" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="92"/>
+      <c r="Q2" s="128"/>
       <c r="R2" s="11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="31">
+      <c r="A3" s="29">
         <v>1</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="30">
         <v>102</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="31">
         <v>60</v>
       </c>
-      <c r="F3" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="35">
+      <c r="F3" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="33">
         <v>90</v>
       </c>
-      <c r="H3" s="36">
+      <c r="H3" s="34">
         <f>E3*G3</f>
         <v>5400</v>
       </c>
-      <c r="I3" s="37">
+      <c r="I3" s="35">
         <f>H3/250</f>
         <v>21.6</v>
       </c>
-      <c r="J3" s="37">
+      <c r="J3" s="35">
         <f>H3/5400</f>
         <v>1</v>
       </c>
-      <c r="K3" s="37">
+      <c r="K3" s="35">
         <f>H3/9</f>
         <v>600</v>
       </c>
-      <c r="L3" s="31" t="s">
+      <c r="L3" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="31" t="s">
+      <c r="M3" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="38" t="s">
+      <c r="N3" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="O3" s="79" t="s">
+      <c r="O3" s="115" t="s">
         <v>80</v>
       </c>
-      <c r="P3" s="75" t="s">
+      <c r="P3" s="111" t="s">
         <v>47</v>
       </c>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="94">
+      <c r="Q3" s="37"/>
+      <c r="R3" s="130">
         <v>44089</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="31">
+      <c r="A4" s="29">
         <v>2</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="29">
         <v>82</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="31">
         <v>60</v>
       </c>
-      <c r="F4" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="35">
+      <c r="F4" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="33">
         <v>90</v>
       </c>
-      <c r="H4" s="36">
+      <c r="H4" s="34">
         <f t="shared" ref="H4:H16" si="0">E4*G4</f>
         <v>5400</v>
       </c>
-      <c r="I4" s="37">
+      <c r="I4" s="35">
         <f t="shared" ref="I4:I10" si="1">H4/250</f>
         <v>21.6</v>
       </c>
-      <c r="J4" s="37">
+      <c r="J4" s="35">
         <f t="shared" ref="J4:J16" si="2">H4/5400</f>
         <v>1</v>
       </c>
-      <c r="K4" s="37">
+      <c r="K4" s="35">
         <f t="shared" ref="K4:K14" si="3">H4/9</f>
         <v>600</v>
       </c>
-      <c r="L4" s="31" t="s">
+      <c r="L4" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="31" t="s">
+      <c r="M4" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="38" t="s">
+      <c r="N4" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="O4" s="81"/>
-      <c r="P4" s="93"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="95"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="129"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="131"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="31">
+      <c r="A5" s="29">
         <v>3</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="29">
         <v>582</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="31">
         <v>60</v>
       </c>
-      <c r="F5" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="35">
+      <c r="F5" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="33">
         <v>90</v>
       </c>
-      <c r="H5" s="36">
+      <c r="H5" s="34">
         <f t="shared" si="0"/>
         <v>5400</v>
       </c>
-      <c r="I5" s="37">
+      <c r="I5" s="35">
         <f t="shared" si="1"/>
         <v>21.6</v>
       </c>
-      <c r="J5" s="37">
+      <c r="J5" s="35">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K5" s="37">
+      <c r="K5" s="35">
         <f t="shared" si="3"/>
         <v>600</v>
       </c>
-      <c r="L5" s="31" t="s">
+      <c r="L5" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="31" t="s">
+      <c r="M5" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="38" t="s">
+      <c r="N5" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="O5" s="81"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="95"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="129"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="131"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="31">
+      <c r="A6" s="29">
         <v>4</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="31">
         <v>30</v>
       </c>
-      <c r="F6" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="35">
+      <c r="F6" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="33">
         <v>60</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H6" s="34">
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-      <c r="I6" s="37">
+      <c r="I6" s="35">
         <f t="shared" si="1"/>
         <v>7.2</v>
       </c>
-      <c r="J6" s="37">
+      <c r="J6" s="35">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K6" s="37">
+      <c r="K6" s="35">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="L6" s="31" t="s">
+      <c r="L6" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="31" t="s">
+      <c r="M6" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="38" t="s">
+      <c r="N6" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="O6" s="81"/>
-      <c r="P6" s="93"/>
-      <c r="Q6" s="41" t="s">
+      <c r="O6" s="117"/>
+      <c r="P6" s="129"/>
+      <c r="Q6" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="R6" s="95"/>
+      <c r="R6" s="131"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="31">
+      <c r="A7" s="29">
         <v>5</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="31">
         <v>30</v>
       </c>
-      <c r="F7" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="35">
+      <c r="F7" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="33">
         <v>60</v>
       </c>
-      <c r="H7" s="36">
+      <c r="H7" s="34">
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-      <c r="I7" s="37">
+      <c r="I7" s="35">
         <f t="shared" si="1"/>
         <v>7.2</v>
       </c>
-      <c r="J7" s="37">
+      <c r="J7" s="35">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K7" s="37">
+      <c r="K7" s="35">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="L7" s="31" t="s">
+      <c r="L7" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="31" t="s">
+      <c r="M7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="38" t="s">
+      <c r="N7" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="O7" s="81"/>
-      <c r="P7" s="93"/>
-      <c r="Q7" s="41" t="s">
+      <c r="O7" s="117"/>
+      <c r="P7" s="129"/>
+      <c r="Q7" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="R7" s="95"/>
+      <c r="R7" s="131"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="31">
-        <v>6</v>
-      </c>
-      <c r="B8" s="32" t="s">
+      <c r="A8" s="29">
+        <v>6</v>
+      </c>
+      <c r="B8" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="31">
         <v>30</v>
       </c>
-      <c r="F8" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="35">
+      <c r="F8" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="33">
         <v>60</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="34">
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="35">
         <f t="shared" si="1"/>
         <v>7.2</v>
       </c>
-      <c r="J8" s="37">
+      <c r="J8" s="35">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K8" s="37">
+      <c r="K8" s="35">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="L8" s="31" t="s">
+      <c r="L8" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="31" t="s">
+      <c r="M8" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="38" t="s">
+      <c r="N8" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="O8" s="81"/>
-      <c r="P8" s="93"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="95"/>
+      <c r="O8" s="117"/>
+      <c r="P8" s="129"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="131"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="31">
+      <c r="A9" s="29">
         <v>7</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="29">
         <v>196</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="31">
         <v>40</v>
       </c>
-      <c r="F9" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="35">
+      <c r="F9" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="33">
         <v>80</v>
       </c>
-      <c r="H9" s="36">
+      <c r="H9" s="34">
         <f t="shared" si="0"/>
         <v>3200</v>
       </c>
-      <c r="I9" s="37">
+      <c r="I9" s="35">
         <f t="shared" si="1"/>
         <v>12.8</v>
       </c>
-      <c r="J9" s="37">
+      <c r="J9" s="35">
         <f t="shared" si="2"/>
         <v>0.59259259259259256</v>
       </c>
-      <c r="K9" s="37">
+      <c r="K9" s="35">
         <f t="shared" si="3"/>
         <v>355.55555555555554</v>
       </c>
-      <c r="L9" s="31" t="s">
+      <c r="L9" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="31" t="s">
+      <c r="M9" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="38" t="s">
+      <c r="N9" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="O9" s="80"/>
-      <c r="P9" s="76"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="96"/>
+      <c r="O9" s="116"/>
+      <c r="P9" s="112"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="132"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="79">
+      <c r="A10" s="115">
         <v>8</v>
       </c>
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="79" t="s">
+      <c r="C10" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="79">
+      <c r="D10" s="115">
         <v>413</v>
       </c>
-      <c r="E10" s="86">
+      <c r="E10" s="122">
         <v>40</v>
       </c>
-      <c r="F10" s="88" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="84">
+      <c r="F10" s="124" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="120">
         <v>80</v>
       </c>
-      <c r="H10" s="82">
+      <c r="H10" s="118">
         <f>E10*G10</f>
         <v>3200</v>
       </c>
-      <c r="I10" s="82">
+      <c r="I10" s="118">
         <f t="shared" si="1"/>
         <v>12.8</v>
       </c>
-      <c r="J10" s="82">
+      <c r="J10" s="118">
         <f t="shared" si="2"/>
         <v>0.59259259259259256</v>
       </c>
-      <c r="K10" s="82">
+      <c r="K10" s="118">
         <f>H10/9</f>
         <v>355.55555555555554</v>
       </c>
-      <c r="L10" s="79" t="s">
+      <c r="L10" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="M10" s="79" t="s">
+      <c r="M10" s="115" t="s">
         <v>79</v>
       </c>
-      <c r="N10" s="75" t="s">
+      <c r="N10" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="O10" s="75" t="s">
+      <c r="O10" s="111" t="s">
         <v>75</v>
       </c>
-      <c r="P10" s="75" t="s">
+      <c r="P10" s="111" t="s">
         <v>74</v>
       </c>
-      <c r="Q10" s="43" t="s">
+      <c r="Q10" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="R10" s="77">
+      <c r="R10" s="113">
         <v>44094</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="80"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="80"/>
-      <c r="N11" s="76"/>
-      <c r="O11" s="76"/>
-      <c r="P11" s="76"/>
-      <c r="Q11" s="43" t="s">
+      <c r="A11" s="116"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="119"/>
+      <c r="K11" s="119"/>
+      <c r="L11" s="116"/>
+      <c r="M11" s="116"/>
+      <c r="N11" s="112"/>
+      <c r="O11" s="112"/>
+      <c r="P11" s="112"/>
+      <c r="Q11" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="R11" s="78"/>
+      <c r="R11" s="114"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="31">
+      <c r="A12" s="29">
         <v>9</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="29">
         <v>28</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="31">
         <v>40</v>
       </c>
-      <c r="F12" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="35">
+      <c r="F12" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="33">
         <v>80</v>
       </c>
-      <c r="H12" s="36">
+      <c r="H12" s="34">
         <f t="shared" si="0"/>
         <v>3200</v>
       </c>
-      <c r="I12" s="37">
+      <c r="I12" s="35">
         <f>H12/250</f>
         <v>12.8</v>
       </c>
-      <c r="J12" s="37">
+      <c r="J12" s="35">
         <f t="shared" si="2"/>
         <v>0.59259259259259256</v>
       </c>
-      <c r="K12" s="37">
+      <c r="K12" s="35">
         <f t="shared" si="3"/>
         <v>355.55555555555554</v>
       </c>
-      <c r="L12" s="31" t="s">
+      <c r="L12" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="M12" s="31" t="s">
+      <c r="M12" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="N12" s="38" t="s">
+      <c r="N12" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="O12" s="43" t="s">
+      <c r="O12" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="43" t="s">
+      <c r="P12" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="44">
+      <c r="Q12" s="41"/>
+      <c r="R12" s="42">
         <v>44103</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="31">
+      <c r="A13" s="29">
         <v>10</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="29">
         <v>147</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="31">
         <v>40</v>
       </c>
-      <c r="F13" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="35">
+      <c r="F13" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="33">
         <v>80</v>
       </c>
-      <c r="H13" s="36">
+      <c r="H13" s="34">
         <f t="shared" si="0"/>
         <v>3200</v>
       </c>
-      <c r="I13" s="37">
+      <c r="I13" s="35">
         <f t="shared" ref="I13:I16" si="4">H13/250</f>
         <v>12.8</v>
       </c>
-      <c r="J13" s="37">
+      <c r="J13" s="35">
         <f t="shared" si="2"/>
         <v>0.59259259259259256</v>
       </c>
-      <c r="K13" s="37">
+      <c r="K13" s="35">
         <f t="shared" si="3"/>
         <v>355.55555555555554</v>
       </c>
-      <c r="L13" s="31" t="s">
+      <c r="L13" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="M13" s="31" t="s">
+      <c r="M13" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="N13" s="38" t="s">
+      <c r="N13" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="O13" s="75" t="s">
+      <c r="O13" s="111" t="s">
         <v>128</v>
       </c>
-      <c r="P13" s="75" t="s">
+      <c r="P13" s="111" t="s">
         <v>129</v>
       </c>
-      <c r="Q13" s="75" t="s">
+      <c r="Q13" s="111" t="s">
         <v>130</v>
       </c>
-      <c r="R13" s="77">
+      <c r="R13" s="113">
         <v>44112</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="31">
+      <c r="A14" s="29">
         <v>11</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="29">
         <v>197</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="31">
         <v>40</v>
       </c>
-      <c r="F14" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="35">
+      <c r="F14" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="33">
         <v>80</v>
       </c>
-      <c r="H14" s="36">
+      <c r="H14" s="34">
         <f>E14*G14</f>
         <v>3200</v>
       </c>
-      <c r="I14" s="37">
+      <c r="I14" s="35">
         <f t="shared" si="4"/>
         <v>12.8</v>
       </c>
-      <c r="J14" s="37">
+      <c r="J14" s="35">
         <f t="shared" si="2"/>
         <v>0.59259259259259256</v>
       </c>
-      <c r="K14" s="37">
+      <c r="K14" s="35">
         <f t="shared" si="3"/>
         <v>355.55555555555554</v>
       </c>
-      <c r="L14" s="31" t="s">
+      <c r="L14" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="M14" s="31" t="s">
+      <c r="M14" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="N14" s="38" t="s">
+      <c r="N14" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="O14" s="76"/>
-      <c r="P14" s="76"/>
-      <c r="Q14" s="76"/>
-      <c r="R14" s="78"/>
+      <c r="O14" s="112"/>
+      <c r="P14" s="112"/>
+      <c r="Q14" s="112"/>
+      <c r="R14" s="114"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="31">
+      <c r="A15" s="29">
         <v>12</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="33">
-        <v>0</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="35">
-        <v>0</v>
-      </c>
-      <c r="H15" s="36">
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="31">
+        <v>0</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="33">
+        <v>0</v>
+      </c>
+      <c r="H15" s="34">
         <f>E15*G15</f>
         <v>0</v>
       </c>
-      <c r="I15" s="37">
+      <c r="I15" s="35">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J15" s="37">
+      <c r="J15" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K15" s="37"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="45"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="43"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="31">
+      <c r="A16" s="29">
         <v>13</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="33">
-        <v>0</v>
-      </c>
-      <c r="F16" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="35">
-        <v>0</v>
-      </c>
-      <c r="H16" s="36">
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="31">
+        <v>0</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="33">
+        <v>0</v>
+      </c>
+      <c r="H16" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="37">
+      <c r="I16" s="35">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J16" s="37">
+      <c r="J16" s="35">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K16" s="37"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="45"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="43"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="31">
+      <c r="A17" s="29">
         <v>14</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="33">
-        <v>0</v>
-      </c>
-      <c r="F17" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="35">
-        <v>0</v>
-      </c>
-      <c r="H17" s="36">
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="31">
+        <v>0</v>
+      </c>
+      <c r="F17" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="33">
+        <v>0</v>
+      </c>
+      <c r="H17" s="34">
         <f>E17*G17</f>
         <v>0</v>
       </c>
-      <c r="I17" s="37">
+      <c r="I17" s="35">
         <f>H17/250</f>
         <v>0</v>
       </c>
-      <c r="J17" s="37">
+      <c r="J17" s="35">
         <f>H17/5400</f>
         <v>0</v>
       </c>
-      <c r="K17" s="37"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="45"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="43"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="31">
+      <c r="A18" s="29">
         <v>15</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="33">
-        <v>0</v>
-      </c>
-      <c r="F18" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="35">
-        <v>0</v>
-      </c>
-      <c r="H18" s="36">
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="31">
+        <v>0</v>
+      </c>
+      <c r="F18" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="33">
+        <v>0</v>
+      </c>
+      <c r="H18" s="34">
         <f t="shared" ref="H18:H22" si="5">E18*G18</f>
         <v>0</v>
       </c>
-      <c r="I18" s="37">
+      <c r="I18" s="35">
         <f t="shared" ref="I18:I22" si="6">H18/250</f>
         <v>0</v>
       </c>
-      <c r="J18" s="37">
+      <c r="J18" s="35">
         <f t="shared" ref="J18:J22" si="7">H18/5400</f>
         <v>0</v>
       </c>
-      <c r="K18" s="37"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="45"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="43"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="31">
+      <c r="A19" s="29">
         <v>16</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="33">
-        <v>0</v>
-      </c>
-      <c r="F19" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="35">
-        <v>0</v>
-      </c>
-      <c r="H19" s="36">
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="31">
+        <v>0</v>
+      </c>
+      <c r="F19" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="33">
+        <v>0</v>
+      </c>
+      <c r="H19" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I19" s="37">
+      <c r="I19" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J19" s="37">
+      <c r="J19" s="35">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K19" s="37"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="45"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="43"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="31">
+      <c r="A20" s="29">
         <v>17</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="33">
-        <v>0</v>
-      </c>
-      <c r="F20" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="35">
-        <v>0</v>
-      </c>
-      <c r="H20" s="36">
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="31">
+        <v>0</v>
+      </c>
+      <c r="F20" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="33">
+        <v>0</v>
+      </c>
+      <c r="H20" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I20" s="37">
+      <c r="I20" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J20" s="37">
+      <c r="J20" s="35">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K20" s="37"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="45"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="43"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="31">
+      <c r="A21" s="29">
         <v>18</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="33">
-        <v>0</v>
-      </c>
-      <c r="F21" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="35">
-        <v>0</v>
-      </c>
-      <c r="H21" s="36">
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="31">
+        <v>0</v>
+      </c>
+      <c r="F21" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="33">
+        <v>0</v>
+      </c>
+      <c r="H21" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I21" s="37">
+      <c r="I21" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J21" s="37">
+      <c r="J21" s="35">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K21" s="37"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="45"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="43"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="31">
+      <c r="A22" s="29">
         <v>19</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="33">
-        <v>0</v>
-      </c>
-      <c r="F22" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="35">
-        <v>0</v>
-      </c>
-      <c r="H22" s="36">
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="31">
+        <v>0</v>
+      </c>
+      <c r="F22" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="33">
+        <v>0</v>
+      </c>
+      <c r="H22" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I22" s="37">
+      <c r="I22" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J22" s="37">
+      <c r="J22" s="35">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K22" s="37"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="45"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -2596,7 +3447,7 @@
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
       <c r="J1" s="12"/>
-      <c r="K1" s="30"/>
+      <c r="K1" s="28"/>
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
@@ -2605,50 +3456,50 @@
       <c r="Q1" s="10"/>
     </row>
     <row r="2" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="98" t="s">
+      <c r="C2" s="134" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="99"/>
-      <c r="E2" s="97" t="s">
+      <c r="D2" s="135"/>
+      <c r="E2" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="47" t="s">
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="47" t="s">
+      <c r="J2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="47" t="s">
+      <c r="K2" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="L2" s="47" t="s">
+      <c r="L2" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="47" t="s">
+      <c r="M2" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="47" t="s">
+      <c r="N2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="47" t="s">
+      <c r="O2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="97" t="s">
+      <c r="P2" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="47" t="s">
+      <c r="Q2" s="133"/>
+      <c r="R2" s="45" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2674,19 +3525,19 @@
       <c r="G3" s="16">
         <v>60</v>
       </c>
-      <c r="H3" s="55">
+      <c r="H3" s="53">
         <f t="shared" ref="H3:H16" si="0">E3*G3</f>
         <v>1800</v>
       </c>
-      <c r="I3" s="56">
+      <c r="I3" s="54">
         <f t="shared" ref="I3:I10" si="1">H3/250</f>
         <v>7.2</v>
       </c>
-      <c r="J3" s="56">
+      <c r="J3" s="54">
         <f t="shared" ref="J3:J16" si="2">H3/5400</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K3" s="56">
+      <c r="K3" s="54">
         <f t="shared" ref="K3:K16" si="3">H3/9</f>
         <v>200</v>
       </c>
@@ -2726,19 +3577,19 @@
       <c r="G4" s="16">
         <v>0</v>
       </c>
-      <c r="H4" s="55">
+      <c r="H4" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I4" s="56">
+      <c r="I4" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J4" s="56">
+      <c r="J4" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K4" s="56">
+      <c r="K4" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2766,19 +3617,19 @@
       <c r="G5" s="16">
         <v>0</v>
       </c>
-      <c r="H5" s="55">
+      <c r="H5" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="56">
+      <c r="I5" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="56">
+      <c r="J5" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K5" s="56">
+      <c r="K5" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2806,19 +3657,19 @@
       <c r="G6" s="16">
         <v>0</v>
       </c>
-      <c r="H6" s="55">
+      <c r="H6" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="56">
+      <c r="I6" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="56">
+      <c r="J6" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6" s="56">
+      <c r="K6" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2846,19 +3697,19 @@
       <c r="G7" s="16">
         <v>0</v>
       </c>
-      <c r="H7" s="55">
+      <c r="H7" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="56">
+      <c r="I7" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7" s="56">
+      <c r="J7" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="56">
+      <c r="K7" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2886,19 +3737,19 @@
       <c r="G8" s="16">
         <v>0</v>
       </c>
-      <c r="H8" s="55">
+      <c r="H8" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="56">
+      <c r="I8" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="56">
+      <c r="J8" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K8" s="56">
+      <c r="K8" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2926,19 +3777,19 @@
       <c r="G9" s="16">
         <v>0</v>
       </c>
-      <c r="H9" s="55">
+      <c r="H9" s="53">
         <f>E9*G9</f>
         <v>0</v>
       </c>
-      <c r="I9" s="56">
+      <c r="I9" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="56">
+      <c r="J9" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="56">
+      <c r="K9" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2966,19 +3817,19 @@
       <c r="G10" s="16">
         <v>0</v>
       </c>
-      <c r="H10" s="55">
+      <c r="H10" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="56">
+      <c r="I10" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="56">
+      <c r="J10" s="54">
         <f>H10/5400</f>
         <v>0</v>
       </c>
-      <c r="K10" s="56">
+      <c r="K10" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3006,19 +3857,19 @@
       <c r="G11" s="16">
         <v>0</v>
       </c>
-      <c r="H11" s="55">
+      <c r="H11" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="56">
+      <c r="I11" s="54">
         <f>H11/250</f>
         <v>0</v>
       </c>
-      <c r="J11" s="56">
+      <c r="J11" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K11" s="56">
+      <c r="K11" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3046,19 +3897,19 @@
       <c r="G12" s="16">
         <v>0</v>
       </c>
-      <c r="H12" s="55">
+      <c r="H12" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="56">
+      <c r="I12" s="54">
         <f t="shared" ref="I12:I16" si="4">H12/250</f>
         <v>0</v>
       </c>
-      <c r="J12" s="56">
+      <c r="J12" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K12" s="56">
+      <c r="K12" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3086,19 +3937,19 @@
       <c r="G13" s="16">
         <v>0</v>
       </c>
-      <c r="H13" s="55">
+      <c r="H13" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="56">
+      <c r="I13" s="54">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J13" s="56">
+      <c r="J13" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K13" s="56">
+      <c r="K13" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3126,19 +3977,19 @@
       <c r="G14" s="16">
         <v>0</v>
       </c>
-      <c r="H14" s="55">
+      <c r="H14" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="56">
+      <c r="I14" s="54">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J14" s="56">
+      <c r="J14" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K14" s="56">
+      <c r="K14" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3166,19 +4017,19 @@
       <c r="G15" s="16">
         <v>0</v>
       </c>
-      <c r="H15" s="55">
+      <c r="H15" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="56">
+      <c r="I15" s="54">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J15" s="56">
+      <c r="J15" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K15" s="56">
+      <c r="K15" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3206,19 +4057,19 @@
       <c r="G16" s="16">
         <v>0</v>
       </c>
-      <c r="H16" s="55">
+      <c r="H16" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="56">
+      <c r="I16" s="54">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J16" s="56">
+      <c r="J16" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K16" s="56">
+      <c r="K16" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3231,88 +4082,88 @@
       <c r="R16" s="2"/>
     </row>
     <row r="17" spans="8:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
     </row>
     <row r="18" spans="8:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
     </row>
     <row r="19" spans="8:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
     </row>
     <row r="20" spans="8:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
     </row>
     <row r="21" spans="8:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
     </row>
     <row r="22" spans="8:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
     </row>
     <row r="23" spans="8:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
     </row>
     <row r="24" spans="8:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
     </row>
     <row r="25" spans="8:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
     </row>
     <row r="26" spans="8:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
     </row>
     <row r="27" spans="8:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
     </row>
     <row r="28" spans="8:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
     </row>
     <row r="29" spans="8:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
     </row>
     <row r="30" spans="8:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3373,11 +4224,11 @@
       <c r="C2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="100" t="s">
+      <c r="D2" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
       <c r="G2" s="20" t="s">
         <v>7</v>
       </c>
@@ -3399,10 +4250,10 @@
       <c r="M2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="100" t="s">
+      <c r="N2" s="136" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="100"/>
+      <c r="O2" s="136"/>
       <c r="P2" s="20" t="s">
         <v>26</v>
       </c>
@@ -3958,8 +4809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B55DF859-642A-4784-AFB9-8D738C6D7832}">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4005,1589 +4856,1597 @@
       <c r="R1" s="24"/>
     </row>
     <row r="2" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="98" t="s">
+      <c r="C2" s="134" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="99"/>
-      <c r="E2" s="97" t="s">
+      <c r="D2" s="135"/>
+      <c r="E2" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="47" t="s">
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="47" t="s">
+      <c r="J2" s="45" t="s">
         <v>9</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="L2" s="47" t="s">
+      <c r="L2" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="47" t="s">
+      <c r="M2" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="47" t="s">
+      <c r="N2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="47" t="s">
+      <c r="O2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="97" t="s">
+      <c r="P2" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="47" t="s">
+      <c r="Q2" s="133"/>
+      <c r="R2" s="45" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="62">
+      <c r="A3" s="60">
         <v>1</v>
       </c>
-      <c r="B3" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="63" t="s">
+      <c r="B3" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="63">
+      <c r="D3" s="61">
         <v>123</v>
       </c>
-      <c r="E3" s="63">
+      <c r="E3" s="61">
         <v>75</v>
       </c>
-      <c r="F3" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="65">
+      <c r="F3" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="63">
         <v>120</v>
       </c>
-      <c r="H3" s="66">
+      <c r="H3" s="64">
         <f>E3*G3</f>
         <v>9000</v>
       </c>
-      <c r="I3" s="67">
+      <c r="I3" s="65">
         <f>H3/250</f>
         <v>36</v>
       </c>
-      <c r="J3" s="67">
+      <c r="J3" s="65">
         <f>H3/5400</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="K3" s="72">
+      <c r="K3" s="70">
         <f>H3/9</f>
         <v>1000</v>
       </c>
-      <c r="L3" s="62" t="s">
+      <c r="L3" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="68" t="s">
+      <c r="M3" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="N3" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="69" t="s">
+      <c r="O3" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="69" t="s">
+      <c r="P3" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="69" t="s">
+      <c r="Q3" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="70">
+      <c r="R3" s="68">
         <v>44097</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="71">
+      <c r="A4" s="69">
         <v>2</v>
       </c>
-      <c r="B4" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="63" t="s">
+      <c r="B4" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="62">
+      <c r="D4" s="60">
         <v>52</v>
       </c>
-      <c r="E4" s="63">
+      <c r="E4" s="61">
         <v>40</v>
       </c>
-      <c r="F4" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="65">
+      <c r="F4" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="63">
         <v>80</v>
       </c>
-      <c r="H4" s="66">
+      <c r="H4" s="64">
         <f t="shared" ref="H4:H12" si="0">E4*G4</f>
         <v>3200</v>
       </c>
-      <c r="I4" s="67">
+      <c r="I4" s="65">
         <f t="shared" ref="I4:I11" si="1">H4/250</f>
         <v>12.8</v>
       </c>
-      <c r="J4" s="67">
+      <c r="J4" s="65">
         <f t="shared" ref="J4:J12" si="2">H4/5400</f>
         <v>0.59259259259259256</v>
       </c>
-      <c r="K4" s="72">
+      <c r="K4" s="70">
         <f t="shared" ref="K4:K17" si="3">H4/9</f>
         <v>355.55555555555554</v>
       </c>
-      <c r="L4" s="62" t="s">
+      <c r="L4" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="68" t="s">
+      <c r="M4" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="N4" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="104" t="s">
+      <c r="O4" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="P4" s="104" t="s">
+      <c r="P4" s="144" t="s">
         <v>61</v>
       </c>
-      <c r="Q4" s="104" t="s">
+      <c r="Q4" s="144" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="101">
+      <c r="R4" s="141">
         <v>44092</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="71">
+      <c r="A5" s="69">
         <v>3</v>
       </c>
-      <c r="B5" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="63" t="s">
+      <c r="B5" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="62">
+      <c r="D5" s="60">
         <v>53</v>
       </c>
-      <c r="E5" s="63">
+      <c r="E5" s="61">
         <v>40</v>
       </c>
-      <c r="F5" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="65">
+      <c r="F5" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="63">
         <v>80</v>
       </c>
-      <c r="H5" s="66">
+      <c r="H5" s="64">
         <f t="shared" si="0"/>
         <v>3200</v>
       </c>
-      <c r="I5" s="67">
+      <c r="I5" s="65">
         <f t="shared" si="1"/>
         <v>12.8</v>
       </c>
-      <c r="J5" s="67">
+      <c r="J5" s="65">
         <f t="shared" si="2"/>
         <v>0.59259259259259256</v>
       </c>
-      <c r="K5" s="72">
+      <c r="K5" s="70">
         <f t="shared" si="3"/>
         <v>355.55555555555554</v>
       </c>
-      <c r="L5" s="62" t="s">
+      <c r="L5" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" s="68" t="s">
+      <c r="M5" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="N5" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="O5" s="105"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="102"/>
+      <c r="O5" s="145"/>
+      <c r="P5" s="145"/>
+      <c r="Q5" s="145"/>
+      <c r="R5" s="142"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="71">
+      <c r="A6" s="69">
         <v>4</v>
       </c>
-      <c r="B6" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="63" t="s">
+      <c r="B6" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="62">
+      <c r="D6" s="60">
         <v>978</v>
       </c>
-      <c r="E6" s="63">
+      <c r="E6" s="61">
         <v>40</v>
       </c>
-      <c r="F6" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="65">
+      <c r="F6" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="63">
         <v>80</v>
       </c>
-      <c r="H6" s="66">
+      <c r="H6" s="64">
         <f t="shared" si="0"/>
         <v>3200</v>
       </c>
-      <c r="I6" s="67">
+      <c r="I6" s="65">
         <f t="shared" si="1"/>
         <v>12.8</v>
       </c>
-      <c r="J6" s="67">
+      <c r="J6" s="65">
         <f t="shared" si="2"/>
         <v>0.59259259259259256</v>
       </c>
-      <c r="K6" s="72">
+      <c r="K6" s="70">
         <f t="shared" si="3"/>
         <v>355.55555555555554</v>
       </c>
-      <c r="L6" s="62" t="s">
+      <c r="L6" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" s="68" t="s">
+      <c r="M6" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="N6" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="O6" s="106"/>
-      <c r="P6" s="106"/>
-      <c r="Q6" s="106"/>
-      <c r="R6" s="103"/>
+      <c r="O6" s="146"/>
+      <c r="P6" s="146"/>
+      <c r="Q6" s="146"/>
+      <c r="R6" s="143"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="71">
+      <c r="A7" s="69">
         <v>5</v>
       </c>
-      <c r="B7" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="63" t="s">
+      <c r="B7" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="62">
+      <c r="D7" s="60">
         <v>327</v>
       </c>
-      <c r="E7" s="63">
+      <c r="E7" s="61">
         <v>60</v>
       </c>
-      <c r="F7" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="65">
+      <c r="F7" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="63">
         <v>90</v>
       </c>
-      <c r="H7" s="66">
+      <c r="H7" s="64">
         <f t="shared" si="0"/>
         <v>5400</v>
       </c>
-      <c r="I7" s="67">
+      <c r="I7" s="65">
         <f t="shared" si="1"/>
         <v>21.6</v>
       </c>
-      <c r="J7" s="67">
+      <c r="J7" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K7" s="72">
+      <c r="K7" s="70">
         <f t="shared" si="3"/>
         <v>600</v>
       </c>
-      <c r="L7" s="62" t="s">
+      <c r="L7" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="N7" s="69" t="s">
+      <c r="M7" s="60"/>
+      <c r="N7" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="O7" s="104" t="s">
+      <c r="O7" s="144" t="s">
         <v>72</v>
       </c>
-      <c r="P7" s="107" t="s">
+      <c r="P7" s="147" t="s">
         <v>73</v>
       </c>
-      <c r="Q7" s="110" t="s">
+      <c r="Q7" s="150" t="s">
         <v>48</v>
       </c>
-      <c r="R7" s="101">
+      <c r="R7" s="141">
         <v>44089</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="71">
-        <v>6</v>
-      </c>
-      <c r="B8" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="63" t="s">
+      <c r="A8" s="69">
+        <v>6</v>
+      </c>
+      <c r="B8" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="62">
+      <c r="D8" s="60">
         <v>423</v>
       </c>
-      <c r="E8" s="63">
+      <c r="E8" s="61">
         <v>60</v>
       </c>
-      <c r="F8" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="65">
+      <c r="F8" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="63">
         <v>90</v>
       </c>
-      <c r="H8" s="66">
+      <c r="H8" s="64">
         <f t="shared" si="0"/>
         <v>5400</v>
       </c>
-      <c r="I8" s="67">
+      <c r="I8" s="65">
         <f t="shared" si="1"/>
         <v>21.6</v>
       </c>
-      <c r="J8" s="67">
+      <c r="J8" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K8" s="72">
+      <c r="K8" s="70">
         <f t="shared" si="3"/>
         <v>600</v>
       </c>
-      <c r="L8" s="62" t="s">
+      <c r="L8" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" s="69" t="s">
+      <c r="M8" s="60"/>
+      <c r="N8" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="O8" s="105"/>
-      <c r="P8" s="108"/>
-      <c r="Q8" s="111"/>
-      <c r="R8" s="102"/>
+      <c r="O8" s="145"/>
+      <c r="P8" s="148"/>
+      <c r="Q8" s="151"/>
+      <c r="R8" s="142"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="71">
+      <c r="A9" s="69">
         <v>7</v>
       </c>
-      <c r="B9" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="63" t="s">
+      <c r="B9" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="62">
+      <c r="D9" s="60">
         <v>182</v>
       </c>
-      <c r="E9" s="63">
+      <c r="E9" s="61">
         <v>60</v>
       </c>
-      <c r="F9" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="65">
+      <c r="F9" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="63">
         <v>90</v>
       </c>
-      <c r="H9" s="66">
+      <c r="H9" s="64">
         <f t="shared" si="0"/>
         <v>5400</v>
       </c>
-      <c r="I9" s="67">
+      <c r="I9" s="65">
         <f t="shared" si="1"/>
         <v>21.6</v>
       </c>
-      <c r="J9" s="67">
+      <c r="J9" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K9" s="72">
+      <c r="K9" s="70">
         <f t="shared" si="3"/>
         <v>600</v>
       </c>
-      <c r="L9" s="62" t="s">
+      <c r="L9" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="N9" s="68" t="s">
+      <c r="M9" s="60"/>
+      <c r="N9" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="O9" s="105"/>
-      <c r="P9" s="108"/>
-      <c r="Q9" s="111"/>
-      <c r="R9" s="102"/>
+      <c r="O9" s="145"/>
+      <c r="P9" s="148"/>
+      <c r="Q9" s="151"/>
+      <c r="R9" s="142"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="71">
+      <c r="A10" s="69">
         <v>8</v>
       </c>
-      <c r="B10" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="63" t="s">
+      <c r="B10" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="62">
+      <c r="D10" s="60">
         <v>449</v>
       </c>
-      <c r="E10" s="63">
+      <c r="E10" s="61">
         <v>60</v>
       </c>
-      <c r="F10" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="65">
+      <c r="F10" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="63">
         <v>90</v>
       </c>
-      <c r="H10" s="66">
+      <c r="H10" s="64">
         <f>E10*G10</f>
         <v>5400</v>
       </c>
-      <c r="I10" s="67">
+      <c r="I10" s="65">
         <f t="shared" si="1"/>
         <v>21.6</v>
       </c>
-      <c r="J10" s="67">
+      <c r="J10" s="65">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K10" s="72">
+      <c r="K10" s="70">
         <f t="shared" si="3"/>
         <v>600</v>
       </c>
-      <c r="L10" s="62" t="s">
+      <c r="L10" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="M10" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="N10" s="68" t="s">
+      <c r="M10" s="60"/>
+      <c r="N10" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="O10" s="105"/>
-      <c r="P10" s="108"/>
-      <c r="Q10" s="111"/>
-      <c r="R10" s="102"/>
+      <c r="O10" s="145"/>
+      <c r="P10" s="148"/>
+      <c r="Q10" s="151"/>
+      <c r="R10" s="142"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="71">
+      <c r="A11" s="69">
         <v>9</v>
       </c>
-      <c r="B11" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="63" t="s">
+      <c r="B11" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="62">
+      <c r="D11" s="60">
         <v>544</v>
       </c>
-      <c r="E11" s="63">
+      <c r="E11" s="61">
         <v>35</v>
       </c>
-      <c r="F11" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="65">
+      <c r="F11" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="63">
         <v>70</v>
       </c>
-      <c r="H11" s="66">
+      <c r="H11" s="64">
         <f t="shared" si="0"/>
         <v>2450</v>
       </c>
-      <c r="I11" s="67">
+      <c r="I11" s="65">
         <f t="shared" si="1"/>
         <v>9.8000000000000007</v>
       </c>
-      <c r="J11" s="67">
+      <c r="J11" s="65">
         <f>H11/5400</f>
         <v>0.45370370370370372</v>
       </c>
-      <c r="K11" s="72">
+      <c r="K11" s="70">
         <f t="shared" si="3"/>
         <v>272.22222222222223</v>
       </c>
-      <c r="L11" s="62" t="s">
+      <c r="L11" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="M11" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="N11" s="68" t="s">
+      <c r="M11" s="60"/>
+      <c r="N11" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="O11" s="105"/>
-      <c r="P11" s="108"/>
-      <c r="Q11" s="111"/>
-      <c r="R11" s="102"/>
+      <c r="O11" s="145"/>
+      <c r="P11" s="148"/>
+      <c r="Q11" s="151"/>
+      <c r="R11" s="142"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="71">
+      <c r="A12" s="69">
         <v>10</v>
       </c>
-      <c r="B12" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="63" t="s">
+      <c r="B12" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="62">
+      <c r="D12" s="60">
         <v>541</v>
       </c>
-      <c r="E12" s="63">
+      <c r="E12" s="61">
         <v>35</v>
       </c>
-      <c r="F12" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="65">
+      <c r="F12" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="63">
         <v>70</v>
       </c>
-      <c r="H12" s="66">
+      <c r="H12" s="64">
         <f t="shared" si="0"/>
         <v>2450</v>
       </c>
-      <c r="I12" s="67">
+      <c r="I12" s="65">
         <f>H12/250</f>
         <v>9.8000000000000007</v>
       </c>
-      <c r="J12" s="67">
+      <c r="J12" s="65">
         <f t="shared" si="2"/>
         <v>0.45370370370370372</v>
       </c>
-      <c r="K12" s="72">
+      <c r="K12" s="70">
         <f t="shared" si="3"/>
         <v>272.22222222222223</v>
       </c>
-      <c r="L12" s="62" t="s">
+      <c r="L12" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="M12" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" s="68" t="s">
+      <c r="M12" s="60"/>
+      <c r="N12" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="O12" s="105"/>
-      <c r="P12" s="108"/>
-      <c r="Q12" s="111"/>
-      <c r="R12" s="102"/>
+      <c r="O12" s="145"/>
+      <c r="P12" s="148"/>
+      <c r="Q12" s="151"/>
+      <c r="R12" s="142"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="71">
+      <c r="A13" s="69">
         <v>11</v>
       </c>
-      <c r="B13" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="63" t="s">
+      <c r="B13" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="62">
+      <c r="D13" s="60">
         <v>607</v>
       </c>
-      <c r="E13" s="63">
+      <c r="E13" s="61">
         <v>35</v>
       </c>
-      <c r="F13" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="65">
+      <c r="F13" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="63">
         <v>70</v>
       </c>
-      <c r="H13" s="66">
+      <c r="H13" s="64">
         <f t="shared" ref="H13:H17" si="4">E13*G13</f>
         <v>2450</v>
       </c>
-      <c r="I13" s="67">
+      <c r="I13" s="65">
         <f t="shared" ref="I13:I17" si="5">H13/250</f>
         <v>9.8000000000000007</v>
       </c>
-      <c r="J13" s="67">
+      <c r="J13" s="65">
         <f t="shared" ref="J13:J17" si="6">H13/5400</f>
         <v>0.45370370370370372</v>
       </c>
-      <c r="K13" s="72">
+      <c r="K13" s="70">
         <f t="shared" si="3"/>
         <v>272.22222222222223</v>
       </c>
-      <c r="L13" s="62" t="s">
+      <c r="L13" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="M13" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="N13" s="68" t="s">
+      <c r="M13" s="60"/>
+      <c r="N13" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="O13" s="105"/>
-      <c r="P13" s="108"/>
-      <c r="Q13" s="111"/>
-      <c r="R13" s="102"/>
+      <c r="O13" s="145"/>
+      <c r="P13" s="148"/>
+      <c r="Q13" s="151"/>
+      <c r="R13" s="142"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="71">
+      <c r="A14" s="69">
         <v>12</v>
       </c>
-      <c r="B14" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="63" t="s">
+      <c r="B14" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="62">
+      <c r="D14" s="60">
         <v>654</v>
       </c>
-      <c r="E14" s="63">
+      <c r="E14" s="61">
         <v>35</v>
       </c>
-      <c r="F14" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="65">
+      <c r="F14" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="63">
         <v>70</v>
       </c>
-      <c r="H14" s="66">
+      <c r="H14" s="64">
         <f t="shared" si="4"/>
         <v>2450</v>
       </c>
-      <c r="I14" s="67">
+      <c r="I14" s="65">
         <f t="shared" si="5"/>
         <v>9.8000000000000007</v>
       </c>
-      <c r="J14" s="67">
+      <c r="J14" s="65">
         <f t="shared" si="6"/>
         <v>0.45370370370370372</v>
       </c>
-      <c r="K14" s="72">
+      <c r="K14" s="70">
         <f t="shared" si="3"/>
         <v>272.22222222222223</v>
       </c>
-      <c r="L14" s="62" t="s">
+      <c r="L14" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="M14" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="N14" s="68" t="s">
+      <c r="M14" s="60"/>
+      <c r="N14" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="O14" s="105"/>
-      <c r="P14" s="108"/>
-      <c r="Q14" s="111"/>
-      <c r="R14" s="102"/>
+      <c r="O14" s="145"/>
+      <c r="P14" s="148"/>
+      <c r="Q14" s="151"/>
+      <c r="R14" s="142"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="71">
+      <c r="A15" s="69">
         <v>13</v>
       </c>
-      <c r="B15" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="63" t="s">
+      <c r="B15" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="62">
+      <c r="D15" s="60">
         <v>636</v>
       </c>
-      <c r="E15" s="63">
+      <c r="E15" s="61">
         <v>35</v>
       </c>
-      <c r="F15" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="65">
+      <c r="F15" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="63">
         <v>70</v>
       </c>
-      <c r="H15" s="66">
+      <c r="H15" s="64">
         <f t="shared" si="4"/>
         <v>2450</v>
       </c>
-      <c r="I15" s="67">
+      <c r="I15" s="65">
         <f t="shared" si="5"/>
         <v>9.8000000000000007</v>
       </c>
-      <c r="J15" s="67">
+      <c r="J15" s="65">
         <f t="shared" si="6"/>
         <v>0.45370370370370372</v>
       </c>
-      <c r="K15" s="72">
+      <c r="K15" s="70">
         <f t="shared" si="3"/>
         <v>272.22222222222223</v>
       </c>
-      <c r="L15" s="62" t="s">
+      <c r="L15" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="M15" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="N15" s="68" t="s">
+      <c r="M15" s="60"/>
+      <c r="N15" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="O15" s="105"/>
-      <c r="P15" s="108"/>
-      <c r="Q15" s="111"/>
-      <c r="R15" s="102"/>
+      <c r="O15" s="145"/>
+      <c r="P15" s="148"/>
+      <c r="Q15" s="151"/>
+      <c r="R15" s="142"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="71">
+      <c r="A16" s="69">
         <v>14</v>
       </c>
-      <c r="B16" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="63" t="s">
+      <c r="B16" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="62">
+      <c r="D16" s="60">
         <v>515</v>
       </c>
-      <c r="E16" s="63">
+      <c r="E16" s="61">
         <v>40</v>
       </c>
-      <c r="F16" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="65">
+      <c r="F16" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="63">
         <v>80</v>
       </c>
-      <c r="H16" s="66">
+      <c r="H16" s="64">
         <f t="shared" si="4"/>
         <v>3200</v>
       </c>
-      <c r="I16" s="67">
+      <c r="I16" s="65">
         <f t="shared" si="5"/>
         <v>12.8</v>
       </c>
-      <c r="J16" s="67">
+      <c r="J16" s="65">
         <f t="shared" si="6"/>
         <v>0.59259259259259256</v>
       </c>
-      <c r="K16" s="72">
+      <c r="K16" s="70">
         <f t="shared" si="3"/>
         <v>355.55555555555554</v>
       </c>
-      <c r="L16" s="62" t="s">
+      <c r="L16" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="M16" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="N16" s="68" t="s">
+      <c r="M16" s="60"/>
+      <c r="N16" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="O16" s="106"/>
-      <c r="P16" s="109"/>
-      <c r="Q16" s="112"/>
-      <c r="R16" s="103"/>
+      <c r="O16" s="146"/>
+      <c r="P16" s="149"/>
+      <c r="Q16" s="152"/>
+      <c r="R16" s="143"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="71">
+      <c r="A17" s="69">
         <v>15</v>
       </c>
-      <c r="B17" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="63" t="s">
+      <c r="B17" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="63">
+      <c r="D17" s="61">
         <v>856</v>
       </c>
-      <c r="E17" s="63">
+      <c r="E17" s="61">
         <v>40</v>
       </c>
-      <c r="F17" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="65">
+      <c r="F17" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="63">
         <v>80</v>
       </c>
-      <c r="H17" s="66">
+      <c r="H17" s="64">
         <f t="shared" si="4"/>
         <v>3200</v>
       </c>
-      <c r="I17" s="67">
+      <c r="I17" s="65">
         <f t="shared" si="5"/>
         <v>12.8</v>
       </c>
-      <c r="J17" s="67">
+      <c r="J17" s="65">
         <f t="shared" si="6"/>
         <v>0.59259259259259256</v>
       </c>
-      <c r="K17" s="72">
+      <c r="K17" s="70">
         <f t="shared" si="3"/>
         <v>355.55555555555554</v>
       </c>
-      <c r="L17" s="62" t="s">
+      <c r="L17" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="M17" s="62" t="s">
+      <c r="M17" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="N17" s="68" t="s">
+      <c r="N17" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="O17" s="69" t="s">
+      <c r="O17" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="P17" s="69" t="s">
+      <c r="P17" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="Q17" s="69" t="s">
+      <c r="Q17" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="R17" s="70">
+      <c r="R17" s="68">
         <v>44108</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="52">
+      <c r="A18" s="50">
         <v>16</v>
       </c>
-      <c r="B18" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="73" t="s">
+      <c r="B18" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="74">
+      <c r="D18" s="72">
         <v>508</v>
       </c>
-      <c r="E18" s="48">
+      <c r="E18" s="46">
         <v>40</v>
       </c>
-      <c r="F18" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="50">
+      <c r="F18" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="48">
         <v>80</v>
       </c>
-      <c r="H18" s="54">
+      <c r="H18" s="52">
         <f t="shared" ref="H18:H27" si="7">E18*G18</f>
         <v>3200</v>
       </c>
-      <c r="I18" s="51">
+      <c r="I18" s="49">
         <f t="shared" ref="I18:I27" si="8">H18/250</f>
         <v>12.8</v>
       </c>
-      <c r="J18" s="51">
+      <c r="J18" s="49">
         <f t="shared" ref="J18:J27" si="9">H18/5400</f>
         <v>0.59259259259259256</v>
       </c>
-      <c r="K18" s="51">
+      <c r="K18" s="49">
         <f>H17/9</f>
         <v>355.55555555555554</v>
       </c>
-      <c r="L18" s="73" t="s">
+      <c r="L18" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="M18" s="73" t="s">
+      <c r="M18" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="N18" s="53" t="s">
+      <c r="N18" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="O18" s="53"/>
-      <c r="P18" s="53" t="s">
+      <c r="O18" s="51"/>
+      <c r="P18" s="137" t="s">
         <v>129</v>
       </c>
-      <c r="Q18" s="53"/>
-      <c r="R18" s="70">
+      <c r="Q18" s="51"/>
+      <c r="R18" s="68">
         <v>44121</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="52">
+      <c r="A19" s="50">
         <v>17</v>
       </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="48">
-        <v>0</v>
-      </c>
-      <c r="F19" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="50">
-        <v>0</v>
-      </c>
-      <c r="H19" s="54">
+      <c r="B19" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="72">
+        <v>616</v>
+      </c>
+      <c r="E19" s="46">
+        <v>35</v>
+      </c>
+      <c r="F19" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="48">
+        <v>70</v>
+      </c>
+      <c r="H19" s="52">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="51">
+        <v>2450</v>
+      </c>
+      <c r="I19" s="49">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="51">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J19" s="49">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="51"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="53"/>
+        <v>0.45370370370370372</v>
+      </c>
+      <c r="K19" s="49"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="71"/>
+      <c r="N19" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="O19" s="51"/>
+      <c r="P19" s="138"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="140">
+        <v>44139</v>
+      </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="52">
+      <c r="A20" s="50">
         <v>18</v>
       </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="48">
-        <v>0</v>
-      </c>
-      <c r="F20" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="50">
-        <v>0</v>
-      </c>
-      <c r="H20" s="54">
+      <c r="B20" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="72">
+        <v>624</v>
+      </c>
+      <c r="E20" s="46">
+        <v>35</v>
+      </c>
+      <c r="F20" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="48">
+        <v>70</v>
+      </c>
+      <c r="H20" s="52">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="51">
+        <v>2450</v>
+      </c>
+      <c r="I20" s="49">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="51">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J20" s="49">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="51"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="53"/>
-      <c r="Q20" s="53"/>
-      <c r="R20" s="53"/>
+        <v>0.45370370370370372</v>
+      </c>
+      <c r="K20" s="49"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="O20" s="51"/>
+      <c r="P20" s="138"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="138"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="52">
+      <c r="A21" s="50">
         <v>19</v>
       </c>
-      <c r="B21" s="53"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="48">
-        <v>0</v>
-      </c>
-      <c r="F21" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="50">
-        <v>0</v>
-      </c>
-      <c r="H21" s="54">
+      <c r="B21" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="72">
+        <v>625</v>
+      </c>
+      <c r="E21" s="46">
+        <v>35</v>
+      </c>
+      <c r="F21" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="48">
+        <v>70</v>
+      </c>
+      <c r="H21" s="52">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="51">
+        <v>2450</v>
+      </c>
+      <c r="I21" s="49">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="51">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J21" s="49">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="51"/>
-      <c r="L21" s="73"/>
-      <c r="M21" s="73"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="53"/>
-      <c r="R21" s="53"/>
+        <v>0.45370370370370372</v>
+      </c>
+      <c r="K21" s="49"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="O21" s="51"/>
+      <c r="P21" s="139"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="139"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="52">
+      <c r="A22" s="50">
         <v>20</v>
       </c>
-      <c r="B22" s="53"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="48">
-        <v>0</v>
-      </c>
-      <c r="F22" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="50">
-        <v>0</v>
-      </c>
-      <c r="H22" s="54">
+      <c r="B22" s="51"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="46">
+        <v>0</v>
+      </c>
+      <c r="F22" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="48">
+        <v>0</v>
+      </c>
+      <c r="H22" s="52">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I22" s="51">
+      <c r="I22" s="49">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J22" s="51">
+      <c r="J22" s="49">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K22" s="51"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="53"/>
-      <c r="R22" s="53"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="51"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="52">
+      <c r="A23" s="50">
         <v>21</v>
       </c>
-      <c r="B23" s="53"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="48">
-        <v>0</v>
-      </c>
-      <c r="F23" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G23" s="50">
-        <v>0</v>
-      </c>
-      <c r="H23" s="54">
+      <c r="B23" s="51"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="46">
+        <v>0</v>
+      </c>
+      <c r="F23" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="48">
+        <v>0</v>
+      </c>
+      <c r="H23" s="52">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I23" s="51">
+      <c r="I23" s="49">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J23" s="51">
+      <c r="J23" s="49">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K23" s="51"/>
-      <c r="L23" s="73"/>
-      <c r="M23" s="73"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="53"/>
-      <c r="Q23" s="53"/>
-      <c r="R23" s="53"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="51"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="52">
+      <c r="A24" s="50">
         <v>22</v>
       </c>
-      <c r="B24" s="53"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="48">
-        <v>0</v>
-      </c>
-      <c r="F24" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" s="50">
-        <v>0</v>
-      </c>
-      <c r="H24" s="54">
+      <c r="B24" s="51"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="46">
+        <v>0</v>
+      </c>
+      <c r="F24" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="48">
+        <v>0</v>
+      </c>
+      <c r="H24" s="52">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I24" s="51">
+      <c r="I24" s="49">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J24" s="51">
+      <c r="J24" s="49">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K24" s="51"/>
-      <c r="L24" s="73"/>
-      <c r="M24" s="73"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="53"/>
-      <c r="R24" s="53"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="51"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="52">
+      <c r="A25" s="50">
         <v>23</v>
       </c>
-      <c r="B25" s="53"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="48">
-        <v>0</v>
-      </c>
-      <c r="F25" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="50">
-        <v>0</v>
-      </c>
-      <c r="H25" s="54">
+      <c r="B25" s="51"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="46">
+        <v>0</v>
+      </c>
+      <c r="F25" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="48">
+        <v>0</v>
+      </c>
+      <c r="H25" s="52">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I25" s="51">
+      <c r="I25" s="49">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J25" s="51">
+      <c r="J25" s="49">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K25" s="51"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="73"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="53"/>
-      <c r="Q25" s="53"/>
-      <c r="R25" s="53"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="71"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="51"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="52">
+      <c r="A26" s="50">
         <v>24</v>
       </c>
-      <c r="B26" s="53"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="48">
-        <v>0</v>
-      </c>
-      <c r="F26" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G26" s="50">
-        <v>0</v>
-      </c>
-      <c r="H26" s="54">
+      <c r="B26" s="51"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="46">
+        <v>0</v>
+      </c>
+      <c r="F26" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="48">
+        <v>0</v>
+      </c>
+      <c r="H26" s="52">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I26" s="51">
+      <c r="I26" s="49">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J26" s="51">
+      <c r="J26" s="49">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K26" s="51"/>
-      <c r="L26" s="73"/>
-      <c r="M26" s="73"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="53"/>
-      <c r="R26" s="53"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="71"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="52">
+      <c r="A27" s="50">
         <v>25</v>
       </c>
-      <c r="B27" s="53"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="48">
-        <v>0</v>
-      </c>
-      <c r="F27" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G27" s="50">
-        <v>0</v>
-      </c>
-      <c r="H27" s="54">
+      <c r="B27" s="51"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="46">
+        <v>0</v>
+      </c>
+      <c r="F27" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="48">
+        <v>0</v>
+      </c>
+      <c r="H27" s="52">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I27" s="51">
+      <c r="I27" s="49">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J27" s="51">
+      <c r="J27" s="49">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K27" s="51"/>
-      <c r="L27" s="73"/>
-      <c r="M27" s="73"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="53"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="71"/>
+      <c r="M27" s="71"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="51"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="52">
+      <c r="A28" s="50">
         <v>26</v>
       </c>
-      <c r="B28" s="53"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="48">
-        <v>0</v>
-      </c>
-      <c r="F28" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G28" s="50">
-        <v>0</v>
-      </c>
-      <c r="H28" s="54">
+      <c r="B28" s="51"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="46">
+        <v>0</v>
+      </c>
+      <c r="F28" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="48">
+        <v>0</v>
+      </c>
+      <c r="H28" s="52">
         <f t="shared" ref="H28:H36" si="10">E28*G28</f>
         <v>0</v>
       </c>
-      <c r="I28" s="51">
+      <c r="I28" s="49">
         <f t="shared" ref="I28:I36" si="11">H28/250</f>
         <v>0</v>
       </c>
-      <c r="J28" s="51">
+      <c r="J28" s="49">
         <f t="shared" ref="J28:J36" si="12">H28/5400</f>
         <v>0</v>
       </c>
-      <c r="K28" s="51"/>
-      <c r="L28" s="73"/>
-      <c r="M28" s="73"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="53"/>
-      <c r="Q28" s="53"/>
-      <c r="R28" s="53"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="71"/>
+      <c r="M28" s="71"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="51"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="52">
+      <c r="A29" s="50">
         <v>27</v>
       </c>
-      <c r="B29" s="53"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="48">
-        <v>0</v>
-      </c>
-      <c r="F29" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G29" s="50">
-        <v>0</v>
-      </c>
-      <c r="H29" s="54">
+      <c r="B29" s="51"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="46">
+        <v>0</v>
+      </c>
+      <c r="F29" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="48">
+        <v>0</v>
+      </c>
+      <c r="H29" s="52">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I29" s="51">
+      <c r="I29" s="49">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J29" s="51">
+      <c r="J29" s="49">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K29" s="51"/>
-      <c r="L29" s="73"/>
-      <c r="M29" s="73"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="53"/>
-      <c r="R29" s="53"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="51"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="52">
+      <c r="A30" s="50">
         <v>28</v>
       </c>
-      <c r="B30" s="53"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="48">
-        <v>0</v>
-      </c>
-      <c r="F30" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G30" s="50">
-        <v>0</v>
-      </c>
-      <c r="H30" s="54">
+      <c r="B30" s="51"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="46">
+        <v>0</v>
+      </c>
+      <c r="F30" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="48">
+        <v>0</v>
+      </c>
+      <c r="H30" s="52">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I30" s="51">
+      <c r="I30" s="49">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J30" s="51">
+      <c r="J30" s="49">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K30" s="51"/>
-      <c r="L30" s="73"/>
-      <c r="M30" s="73"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="53"/>
-      <c r="Q30" s="53"/>
-      <c r="R30" s="53"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="71"/>
+      <c r="M30" s="71"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="51"/>
+      <c r="R30" s="51"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="52">
+      <c r="A31" s="50">
         <v>29</v>
       </c>
-      <c r="B31" s="53"/>
-      <c r="C31" s="73"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="48">
-        <v>0</v>
-      </c>
-      <c r="F31" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G31" s="50">
-        <v>0</v>
-      </c>
-      <c r="H31" s="54">
+      <c r="B31" s="51"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="46">
+        <v>0</v>
+      </c>
+      <c r="F31" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="48">
+        <v>0</v>
+      </c>
+      <c r="H31" s="52">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I31" s="51">
+      <c r="I31" s="49">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J31" s="51">
+      <c r="J31" s="49">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K31" s="51"/>
-      <c r="L31" s="73"/>
-      <c r="M31" s="73"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="53"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="71"/>
+      <c r="M31" s="71"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="51"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="52">
+      <c r="A32" s="50">
         <v>30</v>
       </c>
-      <c r="B32" s="53"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="48">
-        <v>0</v>
-      </c>
-      <c r="F32" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G32" s="50">
-        <v>0</v>
-      </c>
-      <c r="H32" s="54">
+      <c r="B32" s="51"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="46">
+        <v>0</v>
+      </c>
+      <c r="F32" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="48">
+        <v>0</v>
+      </c>
+      <c r="H32" s="52">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I32" s="51">
+      <c r="I32" s="49">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J32" s="51">
+      <c r="J32" s="49">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K32" s="51"/>
-      <c r="L32" s="73"/>
-      <c r="M32" s="73"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="53"/>
-      <c r="Q32" s="53"/>
-      <c r="R32" s="53"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="71"/>
+      <c r="M32" s="71"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="51"/>
+      <c r="Q32" s="51"/>
+      <c r="R32" s="51"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="52">
+      <c r="A33" s="50">
         <v>31</v>
       </c>
-      <c r="B33" s="53"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="74"/>
-      <c r="E33" s="48">
-        <v>0</v>
-      </c>
-      <c r="F33" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G33" s="50">
-        <v>0</v>
-      </c>
-      <c r="H33" s="54">
+      <c r="B33" s="51"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="46">
+        <v>0</v>
+      </c>
+      <c r="F33" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="48">
+        <v>0</v>
+      </c>
+      <c r="H33" s="52">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I33" s="51">
+      <c r="I33" s="49">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J33" s="51">
+      <c r="J33" s="49">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K33" s="51"/>
-      <c r="L33" s="73"/>
-      <c r="M33" s="73"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="53"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="71"/>
+      <c r="M33" s="71"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="51"/>
+      <c r="Q33" s="51"/>
+      <c r="R33" s="51"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="52">
+      <c r="A34" s="50">
         <v>32</v>
       </c>
-      <c r="B34" s="53"/>
-      <c r="C34" s="73"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="48">
-        <v>0</v>
-      </c>
-      <c r="F34" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G34" s="50">
-        <v>0</v>
-      </c>
-      <c r="H34" s="54">
+      <c r="B34" s="51"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="46">
+        <v>0</v>
+      </c>
+      <c r="F34" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="48">
+        <v>0</v>
+      </c>
+      <c r="H34" s="52">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I34" s="51">
+      <c r="I34" s="49">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J34" s="51">
+      <c r="J34" s="49">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K34" s="51"/>
-      <c r="L34" s="73"/>
-      <c r="M34" s="73"/>
-      <c r="N34" s="53"/>
-      <c r="O34" s="53"/>
-      <c r="P34" s="53"/>
-      <c r="Q34" s="53"/>
-      <c r="R34" s="53"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="71"/>
+      <c r="N34" s="51"/>
+      <c r="O34" s="51"/>
+      <c r="P34" s="51"/>
+      <c r="Q34" s="51"/>
+      <c r="R34" s="51"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="52">
+      <c r="A35" s="50">
         <v>33</v>
       </c>
-      <c r="B35" s="53"/>
-      <c r="C35" s="73"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="48">
-        <v>0</v>
-      </c>
-      <c r="F35" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G35" s="50">
-        <v>0</v>
-      </c>
-      <c r="H35" s="54">
+      <c r="B35" s="51"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="46">
+        <v>0</v>
+      </c>
+      <c r="F35" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" s="48">
+        <v>0</v>
+      </c>
+      <c r="H35" s="52">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I35" s="51">
+      <c r="I35" s="49">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J35" s="51">
+      <c r="J35" s="49">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K35" s="51"/>
-      <c r="L35" s="73"/>
-      <c r="M35" s="73"/>
-      <c r="N35" s="53"/>
-      <c r="O35" s="53"/>
-      <c r="P35" s="53"/>
-      <c r="Q35" s="53"/>
-      <c r="R35" s="53"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="71"/>
+      <c r="M35" s="71"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="51"/>
+      <c r="P35" s="51"/>
+      <c r="Q35" s="51"/>
+      <c r="R35" s="51"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="52">
+      <c r="A36" s="50">
         <v>34</v>
       </c>
-      <c r="B36" s="53"/>
-      <c r="C36" s="73"/>
-      <c r="D36" s="74"/>
-      <c r="E36" s="48">
-        <v>0</v>
-      </c>
-      <c r="F36" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G36" s="50">
-        <v>0</v>
-      </c>
-      <c r="H36" s="54">
+      <c r="B36" s="51"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="46">
+        <v>0</v>
+      </c>
+      <c r="F36" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="48">
+        <v>0</v>
+      </c>
+      <c r="H36" s="52">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I36" s="51">
+      <c r="I36" s="49">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J36" s="51">
+      <c r="J36" s="49">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K36" s="51"/>
-      <c r="L36" s="73"/>
-      <c r="M36" s="73"/>
-      <c r="N36" s="53"/>
-      <c r="O36" s="53"/>
-      <c r="P36" s="53"/>
-      <c r="Q36" s="53"/>
-      <c r="R36" s="53"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="71"/>
+      <c r="M36" s="71"/>
+      <c r="N36" s="51"/>
+      <c r="O36" s="51"/>
+      <c r="P36" s="51"/>
+      <c r="Q36" s="51"/>
+      <c r="R36" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
+    <mergeCell ref="P18:P21"/>
+    <mergeCell ref="R19:R21"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="R7:R16"/>
     <mergeCell ref="R4:R6"/>
@@ -5637,16 +6496,16 @@
     <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
-      <c r="C1" s="113" t="s">
+      <c r="C1" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="29"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="27"/>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
@@ -5664,11 +6523,11 @@
       <c r="C2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="114" t="s">
+      <c r="D2" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
       <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
@@ -5693,10 +6552,10 @@
       <c r="N2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="114" t="s">
+      <c r="O2" s="154" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="114"/>
+      <c r="P2" s="154"/>
       <c r="Q2" s="17" t="s">
         <v>26</v>
       </c>
@@ -6318,16 +7177,16 @@
   <sheetData>
     <row r="1" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8"/>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
@@ -6345,11 +7204,11 @@
       <c r="C2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="114" t="s">
+      <c r="D2" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
       <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
@@ -6371,10 +7230,10 @@
       <c r="M2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="114" t="s">
+      <c r="N2" s="154" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="114"/>
+      <c r="O2" s="154"/>
       <c r="P2" s="17" t="s">
         <v>26</v>
       </c>
@@ -6942,8 +7801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8447ACD0-7AD4-44D3-A668-7314E52214E3}">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6954,15 +7813,15 @@
     <col min="4" max="4" width="8.83984375" customWidth="1"/>
     <col min="5" max="5" width="6.578125" customWidth="1"/>
     <col min="6" max="6" width="4.83984375" customWidth="1"/>
-    <col min="7" max="7" width="2" customWidth="1"/>
+    <col min="7" max="7" width="3.26171875" customWidth="1"/>
     <col min="8" max="8" width="4.83984375" customWidth="1"/>
     <col min="9" max="9" width="7.15625" customWidth="1"/>
     <col min="10" max="10" width="7.26171875" customWidth="1"/>
-    <col min="11" max="11" width="8.15625" customWidth="1"/>
+    <col min="11" max="11" width="11.89453125" customWidth="1"/>
     <col min="12" max="12" width="6.68359375" customWidth="1"/>
     <col min="14" max="14" width="10.41796875" customWidth="1"/>
     <col min="15" max="15" width="11.41796875" customWidth="1"/>
-    <col min="16" max="16" width="22" customWidth="1"/>
+    <col min="16" max="16" width="27.05078125" customWidth="1"/>
     <col min="17" max="17" width="14.68359375" customWidth="1"/>
     <col min="18" max="18" width="15" customWidth="1"/>
     <col min="19" max="19" width="14" customWidth="1"/>
@@ -6982,7 +7841,7 @@
       <c r="I1" s="12"/>
       <c r="J1" s="12"/>
       <c r="K1" s="12"/>
-      <c r="L1" s="30"/>
+      <c r="L1" s="28"/>
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
       <c r="O1" s="9"/>
@@ -6994,21 +7853,21 @@
       <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="44" t="s">
         <v>97</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="115" t="s">
+      <c r="D2" s="155" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="116"/>
-      <c r="F2" s="115" t="s">
+      <c r="E2" s="156"/>
+      <c r="F2" s="155" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="123"/>
-      <c r="H2" s="116"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="156"/>
       <c r="I2" s="20" t="s">
         <v>7</v>
       </c>
@@ -7018,7 +7877,7 @@
       <c r="K2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="46" t="s">
+      <c r="L2" s="44" t="s">
         <v>85</v>
       </c>
       <c r="M2" s="20" t="s">
@@ -7033,82 +7892,78 @@
       <c r="P2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="115" t="s">
+      <c r="Q2" s="155" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="116"/>
+      <c r="R2" s="156"/>
       <c r="S2" s="20" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="13">
-        <v>1</v>
-      </c>
-      <c r="B3" s="60" t="s">
+      <c r="A3" s="87" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="88" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="14">
-        <v>190</v>
-      </c>
-      <c r="F3" s="15">
-        <v>30</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="16">
-        <v>60</v>
-      </c>
-      <c r="I3" s="58">
-        <f>F3*H3</f>
-        <v>1800</v>
-      </c>
-      <c r="J3" s="59">
-        <f>I3/250</f>
-        <v>7.2</v>
-      </c>
-      <c r="K3" s="59">
-        <f>I3/5400</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="L3" s="59">
-        <f>I3/9</f>
-        <v>200</v>
-      </c>
-      <c r="M3" s="13" t="s">
+      <c r="E3" s="89" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" s="90" t="s">
+        <v>143</v>
+      </c>
+      <c r="G3" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="92" t="s">
+        <v>144</v>
+      </c>
+      <c r="I3" s="93" t="s">
+        <v>145</v>
+      </c>
+      <c r="J3" s="94" t="s">
+        <v>146</v>
+      </c>
+      <c r="K3" s="94" t="s">
+        <v>147</v>
+      </c>
+      <c r="L3" s="94" t="s">
+        <v>148</v>
+      </c>
+      <c r="M3" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="N3" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="25" t="s">
+      <c r="O3" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="Q3" s="27" t="s">
+      <c r="Q3" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="R3" s="26" t="s">
+      <c r="R3" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="S3" s="19">
-        <v>44099</v>
+      <c r="S3" s="100" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="13">
+      <c r="A4" s="82">
         <v>2</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="58" t="s">
         <v>99</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -7127,19 +7982,19 @@
       <c r="H4" s="16">
         <v>60</v>
       </c>
-      <c r="I4" s="58">
+      <c r="I4" s="56">
         <f t="shared" ref="I4:I17" si="0">F4*H4</f>
         <v>2400</v>
       </c>
-      <c r="J4" s="59">
+      <c r="J4" s="57">
         <f t="shared" ref="J4:J11" si="1">I4/250</f>
         <v>9.6</v>
       </c>
-      <c r="K4" s="59">
+      <c r="K4" s="57">
         <f t="shared" ref="K4:K17" si="2">I4/5400</f>
         <v>0.44444444444444442</v>
       </c>
-      <c r="L4" s="59">
+      <c r="L4" s="57">
         <f t="shared" ref="L4:L17" si="3">I4/9</f>
         <v>266.66666666666669</v>
       </c>
@@ -7151,21 +8006,21 @@
       <c r="P4" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="Q4" s="117" t="s">
+      <c r="Q4" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="R4" s="117" t="s">
+      <c r="R4" s="79" t="s">
         <v>96</v>
       </c>
-      <c r="S4" s="120">
+      <c r="S4" s="83">
         <v>44108</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="13">
+      <c r="A5" s="82">
         <v>3</v>
       </c>
-      <c r="B5" s="60"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="14" t="s">
         <v>100</v>
       </c>
@@ -7182,19 +8037,19 @@
       <c r="H5" s="16">
         <v>80</v>
       </c>
-      <c r="I5" s="58">
+      <c r="I5" s="56">
         <f t="shared" si="0"/>
         <v>3200</v>
       </c>
-      <c r="J5" s="59">
+      <c r="J5" s="57">
         <f t="shared" si="1"/>
         <v>12.8</v>
       </c>
-      <c r="K5" s="59">
+      <c r="K5" s="57">
         <f t="shared" si="2"/>
         <v>0.59259259259259256</v>
       </c>
-      <c r="L5" s="59">
+      <c r="L5" s="57">
         <f t="shared" si="3"/>
         <v>355.55555555555554</v>
       </c>
@@ -7206,15 +8061,15 @@
         <v>102</v>
       </c>
       <c r="P5" s="1"/>
-      <c r="Q5" s="118"/>
-      <c r="R5" s="118"/>
-      <c r="S5" s="121"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="84"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="13">
+      <c r="A6" s="82">
         <v>4</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="58" t="s">
         <v>99</v>
       </c>
       <c r="C6" s="14" t="s">
@@ -7233,19 +8088,19 @@
       <c r="H6" s="16">
         <v>80</v>
       </c>
-      <c r="I6" s="58">
+      <c r="I6" s="56">
         <f t="shared" si="0"/>
         <v>3200</v>
       </c>
-      <c r="J6" s="59">
+      <c r="J6" s="57">
         <f t="shared" si="1"/>
         <v>12.8</v>
       </c>
-      <c r="K6" s="59">
+      <c r="K6" s="57">
         <f t="shared" si="2"/>
         <v>0.59259259259259256</v>
       </c>
-      <c r="L6" s="59">
+      <c r="L6" s="57">
         <f t="shared" si="3"/>
         <v>355.55555555555554</v>
       </c>
@@ -7257,15 +8112,15 @@
         <v>103</v>
       </c>
       <c r="P6" s="1"/>
-      <c r="Q6" s="118"/>
-      <c r="R6" s="118"/>
-      <c r="S6" s="121"/>
+      <c r="Q6" s="80"/>
+      <c r="R6" s="80"/>
+      <c r="S6" s="84"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="13">
+      <c r="A7" s="82">
         <v>5</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="58" t="s">
         <v>99</v>
       </c>
       <c r="C7" s="14" t="s">
@@ -7284,19 +8139,19 @@
       <c r="H7" s="16">
         <v>50</v>
       </c>
-      <c r="I7" s="58">
+      <c r="I7" s="56">
         <f t="shared" si="0"/>
         <v>1250</v>
       </c>
-      <c r="J7" s="59">
+      <c r="J7" s="57">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K7" s="59">
+      <c r="K7" s="57">
         <f t="shared" si="2"/>
         <v>0.23148148148148148</v>
       </c>
-      <c r="L7" s="59">
+      <c r="L7" s="57">
         <f t="shared" si="3"/>
         <v>138.88888888888889</v>
       </c>
@@ -7308,12 +8163,12 @@
       <c r="P7" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="Q7" s="118"/>
-      <c r="R7" s="118"/>
-      <c r="S7" s="121"/>
+      <c r="Q7" s="80"/>
+      <c r="R7" s="80"/>
+      <c r="S7" s="84"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="13">
+      <c r="A8" s="82">
         <v>6</v>
       </c>
       <c r="B8" s="13"/>
@@ -7333,19 +8188,19 @@
       <c r="H8" s="16">
         <v>60</v>
       </c>
-      <c r="I8" s="58">
+      <c r="I8" s="56">
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-      <c r="J8" s="59">
+      <c r="J8" s="57">
         <f t="shared" si="1"/>
         <v>7.2</v>
       </c>
-      <c r="K8" s="59">
+      <c r="K8" s="57">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L8" s="59">
+      <c r="L8" s="57">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
@@ -7357,12 +8212,12 @@
       <c r="P8" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="Q8" s="119"/>
-      <c r="R8" s="119"/>
-      <c r="S8" s="122"/>
+      <c r="Q8" s="81"/>
+      <c r="R8" s="81"/>
+      <c r="S8" s="85"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="13">
+      <c r="A9" s="82">
         <v>7</v>
       </c>
       <c r="B9" s="13"/>
@@ -7378,19 +8233,19 @@
       <c r="H9" s="16">
         <v>0</v>
       </c>
-      <c r="I9" s="58">
+      <c r="I9" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J9" s="59">
+      <c r="J9" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K9" s="59">
+      <c r="K9" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L9" s="59">
+      <c r="L9" s="57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7400,10 +8255,10 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
+      <c r="S9" s="86"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="13">
+      <c r="A10" s="82">
         <v>8</v>
       </c>
       <c r="B10" s="13"/>
@@ -7419,19 +8274,19 @@
       <c r="H10" s="16">
         <v>0</v>
       </c>
-      <c r="I10" s="58">
+      <c r="I10" s="56">
         <f>F10*H10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="59">
+      <c r="J10" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K10" s="59">
+      <c r="K10" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L10" s="59">
+      <c r="L10" s="57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7441,10 +8296,10 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
+      <c r="S10" s="86"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="13">
+      <c r="A11" s="82">
         <v>9</v>
       </c>
       <c r="B11" s="13"/>
@@ -7460,19 +8315,19 @@
       <c r="H11" s="16">
         <v>0</v>
       </c>
-      <c r="I11" s="58">
+      <c r="I11" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J11" s="59">
+      <c r="J11" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K11" s="59">
+      <c r="K11" s="57">
         <f>I11/5400</f>
         <v>0</v>
       </c>
-      <c r="L11" s="59">
+      <c r="L11" s="57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7482,10 +8337,10 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
+      <c r="S11" s="86"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="13">
+      <c r="A12" s="82">
         <v>10</v>
       </c>
       <c r="B12" s="13"/>
@@ -7501,19 +8356,19 @@
       <c r="H12" s="16">
         <v>0</v>
       </c>
-      <c r="I12" s="58">
+      <c r="I12" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J12" s="59">
+      <c r="J12" s="57">
         <f>I12/250</f>
         <v>0</v>
       </c>
-      <c r="K12" s="59">
+      <c r="K12" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L12" s="59">
+      <c r="L12" s="57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7523,10 +8378,10 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
+      <c r="S12" s="86"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="13">
+      <c r="A13" s="82">
         <v>11</v>
       </c>
       <c r="B13" s="13"/>
@@ -7542,19 +8397,19 @@
       <c r="H13" s="16">
         <v>0</v>
       </c>
-      <c r="I13" s="58">
+      <c r="I13" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J13" s="59">
+      <c r="J13" s="57">
         <f t="shared" ref="J13:J17" si="4">I13/250</f>
         <v>0</v>
       </c>
-      <c r="K13" s="59">
+      <c r="K13" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L13" s="59">
+      <c r="L13" s="57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7564,10 +8419,10 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
+      <c r="S13" s="86"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="13">
+      <c r="A14" s="82">
         <v>12</v>
       </c>
       <c r="B14" s="13"/>
@@ -7583,19 +8438,19 @@
       <c r="H14" s="16">
         <v>0</v>
       </c>
-      <c r="I14" s="58">
+      <c r="I14" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J14" s="59">
+      <c r="J14" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K14" s="59">
+      <c r="K14" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L14" s="59">
+      <c r="L14" s="57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7605,10 +8460,10 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
+      <c r="S14" s="86"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="13">
+      <c r="A15" s="82">
         <v>13</v>
       </c>
       <c r="B15" s="13"/>
@@ -7624,19 +8479,19 @@
       <c r="H15" s="16">
         <v>0</v>
       </c>
-      <c r="I15" s="58">
+      <c r="I15" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J15" s="59">
+      <c r="J15" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K15" s="59">
+      <c r="K15" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L15" s="59">
+      <c r="L15" s="57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7646,10 +8501,10 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
+      <c r="S15" s="86"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="13">
+      <c r="A16" s="82">
         <v>14</v>
       </c>
       <c r="B16" s="13"/>
@@ -7665,19 +8520,19 @@
       <c r="H16" s="16">
         <v>0</v>
       </c>
-      <c r="I16" s="58">
+      <c r="I16" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J16" s="59">
+      <c r="J16" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K16" s="59">
+      <c r="K16" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L16" s="59">
+      <c r="L16" s="57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7687,59 +8542,59 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
+      <c r="S16" s="86"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="13">
+      <c r="A17" s="101">
         <v>15</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="15">
-        <v>0</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="16">
-        <v>0</v>
-      </c>
-      <c r="I17" s="58">
+      <c r="B17" s="102"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="103">
+        <v>0</v>
+      </c>
+      <c r="G17" s="104" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="105">
+        <v>0</v>
+      </c>
+      <c r="I17" s="106">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J17" s="59">
+      <c r="J17" s="107">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K17" s="59">
+      <c r="K17" s="107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L17" s="59">
+      <c r="L17" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
+      <c r="M17" s="108"/>
+      <c r="N17" s="108"/>
+      <c r="O17" s="109"/>
+      <c r="P17" s="108"/>
+      <c r="Q17" s="108"/>
+      <c r="R17" s="108"/>
+      <c r="S17" s="110"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="3">
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="Q4:Q8"/>
-    <mergeCell ref="R4:R8"/>
-    <mergeCell ref="S4:S8"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="F2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -7747,7 +8602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F649F006-2B15-47E0-B9CC-4D669E33B0A6}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -7763,520 +8618,520 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="158" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
     </row>
     <row r="2" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="73" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="125" t="s">
+      <c r="C2" s="73" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="125" t="s">
+      <c r="D2" s="73" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="125" t="s">
+      <c r="E2" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="F2" s="125" t="s">
+      <c r="F2" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="125" t="s">
+      <c r="G2" s="73" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="126">
+      <c r="A3" s="74">
         <v>1</v>
       </c>
-      <c r="B3" s="127" t="s">
+      <c r="B3" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="128" t="s">
+      <c r="C3" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="127" t="s">
+      <c r="D3" s="75" t="s">
         <v>118</v>
       </c>
-      <c r="E3" s="127" t="s">
+      <c r="E3" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="F3" s="127" t="s">
+      <c r="F3" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="G3" s="129">
+      <c r="G3" s="77">
         <v>44108</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="126">
+      <c r="A4" s="74">
         <v>2</v>
       </c>
-      <c r="B4" s="127" t="s">
+      <c r="B4" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="128" t="s">
+      <c r="C4" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="127" t="s">
+      <c r="D4" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="131" t="s">
+      <c r="E4" s="159" t="s">
         <v>125</v>
       </c>
-      <c r="F4" s="131" t="s">
+      <c r="F4" s="159" t="s">
         <v>126</v>
       </c>
-      <c r="G4" s="133">
+      <c r="G4" s="161">
         <v>44112</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="126">
+      <c r="A5" s="74">
         <v>3</v>
       </c>
-      <c r="B5" s="127" t="s">
+      <c r="B5" s="75" t="s">
         <v>131</v>
       </c>
-      <c r="C5" s="128" t="s">
+      <c r="C5" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="127" t="s">
+      <c r="D5" s="75" t="s">
         <v>132</v>
       </c>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="134"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="162"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="126">
+      <c r="A6" s="74">
         <v>4</v>
       </c>
-      <c r="B6" s="127" t="s">
+      <c r="B6" s="75" t="s">
         <v>138</v>
       </c>
-      <c r="C6" s="128" t="s">
+      <c r="C6" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="127" t="s">
+      <c r="D6" s="75" t="s">
         <v>139</v>
       </c>
-      <c r="E6" s="127" t="s">
+      <c r="E6" s="75" t="s">
         <v>137</v>
       </c>
-      <c r="F6" s="127" t="s">
+      <c r="F6" s="75" t="s">
         <v>136</v>
       </c>
-      <c r="G6" s="129">
+      <c r="G6" s="77">
         <v>44124</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="126"/>
-      <c r="B7" s="127"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="130"/>
+      <c r="A7" s="74"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="78"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="126"/>
-      <c r="B8" s="127"/>
-      <c r="C8" s="128"/>
-      <c r="D8" s="127"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="127"/>
-      <c r="G8" s="130"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="78"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="126"/>
-      <c r="B9" s="127"/>
-      <c r="C9" s="128"/>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="130"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="78"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="126"/>
-      <c r="B10" s="127"/>
-      <c r="C10" s="128"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="130"/>
+      <c r="A10" s="74"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="78"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="126"/>
-      <c r="B11" s="127"/>
-      <c r="C11" s="128"/>
-      <c r="D11" s="127"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="127"/>
-      <c r="G11" s="130"/>
+      <c r="A11" s="74"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="78"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="126"/>
-      <c r="B12" s="127"/>
-      <c r="C12" s="128"/>
-      <c r="D12" s="127"/>
-      <c r="E12" s="127"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="130"/>
+      <c r="A12" s="74"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="78"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="126"/>
-      <c r="B13" s="127"/>
-      <c r="C13" s="128"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="127"/>
-      <c r="F13" s="127"/>
-      <c r="G13" s="130"/>
+      <c r="A13" s="74"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="78"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="126"/>
-      <c r="B14" s="127"/>
-      <c r="C14" s="128"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="127"/>
-      <c r="F14" s="127"/>
-      <c r="G14" s="130"/>
+      <c r="A14" s="74"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="78"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="126"/>
-      <c r="B15" s="127"/>
-      <c r="C15" s="128"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="127"/>
-      <c r="F15" s="127"/>
-      <c r="G15" s="130"/>
+      <c r="A15" s="74"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="78"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="126"/>
-      <c r="B16" s="127"/>
-      <c r="C16" s="128"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="130"/>
+      <c r="A16" s="74"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="78"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="126"/>
-      <c r="B17" s="127"/>
-      <c r="C17" s="128"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="130"/>
+      <c r="A17" s="74"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="78"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="126"/>
-      <c r="B18" s="127"/>
-      <c r="C18" s="128"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="130"/>
+      <c r="A18" s="74"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="78"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="126"/>
-      <c r="B19" s="127"/>
-      <c r="C19" s="127"/>
-      <c r="D19" s="127"/>
-      <c r="E19" s="127"/>
-      <c r="F19" s="127"/>
-      <c r="G19" s="130"/>
+      <c r="A19" s="74"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="78"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="126"/>
-      <c r="B20" s="127"/>
-      <c r="C20" s="127"/>
-      <c r="D20" s="127"/>
-      <c r="E20" s="127"/>
-      <c r="F20" s="127"/>
-      <c r="G20" s="130"/>
+      <c r="A20" s="74"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="78"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="126"/>
-      <c r="B21" s="127"/>
-      <c r="C21" s="127"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="127"/>
-      <c r="F21" s="127"/>
-      <c r="G21" s="130"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="78"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="126"/>
-      <c r="B22" s="127"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="127"/>
-      <c r="G22" s="130"/>
+      <c r="A22" s="74"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="78"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="126"/>
-      <c r="B23" s="127"/>
-      <c r="C23" s="127"/>
-      <c r="D23" s="127"/>
-      <c r="E23" s="127"/>
-      <c r="F23" s="127"/>
-      <c r="G23" s="127"/>
+      <c r="A23" s="74"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="127"/>
-      <c r="B24" s="127"/>
-      <c r="C24" s="127"/>
-      <c r="D24" s="127"/>
-      <c r="E24" s="127"/>
-      <c r="F24" s="127"/>
-      <c r="G24" s="127"/>
+      <c r="A24" s="75"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="127"/>
-      <c r="B25" s="127"/>
-      <c r="C25" s="127"/>
-      <c r="D25" s="127"/>
-      <c r="E25" s="127"/>
-      <c r="F25" s="127"/>
-      <c r="G25" s="127"/>
+      <c r="A25" s="75"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="127"/>
-      <c r="B26" s="127"/>
-      <c r="C26" s="127"/>
-      <c r="D26" s="127"/>
-      <c r="E26" s="127"/>
-      <c r="F26" s="127"/>
-      <c r="G26" s="127"/>
+      <c r="A26" s="75"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="127"/>
-      <c r="B27" s="127"/>
-      <c r="C27" s="127"/>
-      <c r="D27" s="127"/>
-      <c r="E27" s="127"/>
-      <c r="F27" s="127"/>
-      <c r="G27" s="127"/>
+      <c r="A27" s="75"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="127"/>
-      <c r="B28" s="127"/>
-      <c r="C28" s="127"/>
-      <c r="D28" s="127"/>
-      <c r="E28" s="127"/>
-      <c r="F28" s="127"/>
-      <c r="G28" s="127"/>
+      <c r="A28" s="75"/>
+      <c r="B28" s="75"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="127"/>
-      <c r="B29" s="127"/>
-      <c r="C29" s="127"/>
-      <c r="D29" s="127"/>
-      <c r="E29" s="127"/>
-      <c r="F29" s="127"/>
-      <c r="G29" s="127"/>
+      <c r="A29" s="75"/>
+      <c r="B29" s="75"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="127"/>
-      <c r="B30" s="127"/>
-      <c r="C30" s="127"/>
-      <c r="D30" s="127"/>
-      <c r="E30" s="127"/>
-      <c r="F30" s="127"/>
-      <c r="G30" s="127"/>
+      <c r="A30" s="75"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="127"/>
-      <c r="B31" s="127"/>
-      <c r="C31" s="127"/>
-      <c r="D31" s="127"/>
-      <c r="E31" s="127"/>
-      <c r="F31" s="127"/>
-      <c r="G31" s="127"/>
+      <c r="A31" s="75"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="127"/>
-      <c r="B32" s="127"/>
-      <c r="C32" s="127"/>
-      <c r="D32" s="127"/>
-      <c r="E32" s="127"/>
-      <c r="F32" s="127"/>
-      <c r="G32" s="127"/>
+      <c r="A32" s="75"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="127"/>
-      <c r="B33" s="127"/>
-      <c r="C33" s="127"/>
-      <c r="D33" s="127"/>
-      <c r="E33" s="127"/>
-      <c r="F33" s="127"/>
-      <c r="G33" s="127"/>
+      <c r="A33" s="75"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="127"/>
-      <c r="B34" s="127"/>
-      <c r="C34" s="127"/>
-      <c r="D34" s="127"/>
-      <c r="E34" s="127"/>
-      <c r="F34" s="127"/>
-      <c r="G34" s="127"/>
+      <c r="A34" s="75"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="127"/>
-      <c r="B35" s="127"/>
-      <c r="C35" s="127"/>
-      <c r="D35" s="127"/>
-      <c r="E35" s="127"/>
-      <c r="F35" s="127"/>
-      <c r="G35" s="127"/>
+      <c r="A35" s="75"/>
+      <c r="B35" s="75"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="127"/>
-      <c r="B36" s="127"/>
-      <c r="C36" s="127"/>
-      <c r="D36" s="127"/>
-      <c r="E36" s="127"/>
-      <c r="F36" s="127"/>
-      <c r="G36" s="127"/>
+      <c r="A36" s="75"/>
+      <c r="B36" s="75"/>
+      <c r="C36" s="75"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="127"/>
-      <c r="B37" s="127"/>
-      <c r="C37" s="127"/>
-      <c r="D37" s="127"/>
-      <c r="E37" s="127"/>
-      <c r="F37" s="127"/>
-      <c r="G37" s="127"/>
+      <c r="A37" s="75"/>
+      <c r="B37" s="75"/>
+      <c r="C37" s="75"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="75"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="127"/>
-      <c r="B38" s="127"/>
-      <c r="C38" s="127"/>
-      <c r="D38" s="127"/>
-      <c r="E38" s="127"/>
-      <c r="F38" s="127"/>
-      <c r="G38" s="127"/>
+      <c r="A38" s="75"/>
+      <c r="B38" s="75"/>
+      <c r="C38" s="75"/>
+      <c r="D38" s="75"/>
+      <c r="E38" s="75"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="75"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="127"/>
-      <c r="B39" s="127"/>
-      <c r="C39" s="127"/>
-      <c r="D39" s="127"/>
-      <c r="E39" s="127"/>
-      <c r="F39" s="127"/>
-      <c r="G39" s="127"/>
+      <c r="A39" s="75"/>
+      <c r="B39" s="75"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="75"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="75"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="127"/>
-      <c r="B40" s="127"/>
-      <c r="C40" s="127"/>
-      <c r="D40" s="127"/>
-      <c r="E40" s="127"/>
-      <c r="F40" s="127"/>
-      <c r="G40" s="127"/>
+      <c r="A40" s="75"/>
+      <c r="B40" s="75"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="75"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="127"/>
-      <c r="B41" s="127"/>
-      <c r="C41" s="127"/>
-      <c r="D41" s="127"/>
-      <c r="E41" s="127"/>
-      <c r="F41" s="127"/>
-      <c r="G41" s="127"/>
+      <c r="A41" s="75"/>
+      <c r="B41" s="75"/>
+      <c r="C41" s="75"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="75"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="75"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="127"/>
-      <c r="B42" s="127"/>
-      <c r="C42" s="127"/>
-      <c r="D42" s="127"/>
-      <c r="E42" s="127"/>
-      <c r="F42" s="127"/>
-      <c r="G42" s="127"/>
+      <c r="A42" s="75"/>
+      <c r="B42" s="75"/>
+      <c r="C42" s="75"/>
+      <c r="D42" s="75"/>
+      <c r="E42" s="75"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="75"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="127"/>
-      <c r="B43" s="127"/>
-      <c r="C43" s="127"/>
-      <c r="D43" s="127"/>
-      <c r="E43" s="127"/>
-      <c r="F43" s="127"/>
-      <c r="G43" s="127"/>
+      <c r="A43" s="75"/>
+      <c r="B43" s="75"/>
+      <c r="C43" s="75"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="75"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="75"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="127"/>
-      <c r="B44" s="127"/>
-      <c r="C44" s="127"/>
-      <c r="D44" s="127"/>
-      <c r="E44" s="127"/>
-      <c r="F44" s="127"/>
-      <c r="G44" s="127"/>
+      <c r="A44" s="75"/>
+      <c r="B44" s="75"/>
+      <c r="C44" s="75"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="75"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="75"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="127"/>
-      <c r="B45" s="127"/>
-      <c r="C45" s="127"/>
-      <c r="D45" s="127"/>
-      <c r="E45" s="127"/>
-      <c r="F45" s="127"/>
-      <c r="G45" s="127"/>
+      <c r="A45" s="75"/>
+      <c r="B45" s="75"/>
+      <c r="C45" s="75"/>
+      <c r="D45" s="75"/>
+      <c r="E45" s="75"/>
+      <c r="F45" s="75"/>
+      <c r="G45" s="75"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="127"/>
-      <c r="B46" s="127"/>
-      <c r="C46" s="127"/>
-      <c r="D46" s="127"/>
-      <c r="E46" s="127"/>
-      <c r="F46" s="127"/>
-      <c r="G46" s="127"/>
+      <c r="A46" s="75"/>
+      <c r="B46" s="75"/>
+      <c r="C46" s="75"/>
+      <c r="D46" s="75"/>
+      <c r="E46" s="75"/>
+      <c r="F46" s="75"/>
+      <c r="G46" s="75"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="127"/>
-      <c r="B47" s="127"/>
-      <c r="C47" s="127"/>
-      <c r="D47" s="127"/>
-      <c r="E47" s="127"/>
-      <c r="F47" s="127"/>
-      <c r="G47" s="127"/>
+      <c r="A47" s="75"/>
+      <c r="B47" s="75"/>
+      <c r="C47" s="75"/>
+      <c r="D47" s="75"/>
+      <c r="E47" s="75"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="75"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="127"/>
-      <c r="B48" s="127"/>
-      <c r="C48" s="127"/>
-      <c r="D48" s="127"/>
-      <c r="E48" s="127"/>
-      <c r="F48" s="127"/>
-      <c r="G48" s="127"/>
+      <c r="A48" s="75"/>
+      <c r="B48" s="75"/>
+      <c r="C48" s="75"/>
+      <c r="D48" s="75"/>
+      <c r="E48" s="75"/>
+      <c r="F48" s="75"/>
+      <c r="G48" s="75"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="127"/>
-      <c r="B49" s="127"/>
-      <c r="C49" s="127"/>
-      <c r="D49" s="127"/>
-      <c r="E49" s="127"/>
-      <c r="F49" s="127"/>
-      <c r="G49" s="127"/>
+      <c r="A49" s="75"/>
+      <c r="B49" s="75"/>
+      <c r="C49" s="75"/>
+      <c r="D49" s="75"/>
+      <c r="E49" s="75"/>
+      <c r="F49" s="75"/>
+      <c r="G49" s="75"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="127"/>
-      <c r="B50" s="127"/>
-      <c r="C50" s="127"/>
-      <c r="D50" s="127"/>
-      <c r="E50" s="127"/>
-      <c r="F50" s="127"/>
-      <c r="G50" s="127"/>
+      <c r="A50" s="75"/>
+      <c r="B50" s="75"/>
+      <c r="C50" s="75"/>
+      <c r="D50" s="75"/>
+      <c r="E50" s="75"/>
+      <c r="F50" s="75"/>
+      <c r="G50" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="4">
